--- a/Missing_Ship_Groups_Reporter/Data/Config.xlsx
+++ b/Missing_Ship_Groups_Reporter/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H144301\Documents\GitHub\RPA-003-Missing-Ship-Groups\Missing_Ship_Groups_Reporter\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nls-my.sharepoint.com/personal/vlodari_nautilus_com/Documents/Documents/UiPath/RPA-034-Missing-Ship-Groups/Missing_Ship_Groups_Reporter/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD63358-AB95-4525-998C-52E138AFB44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{ABD63358-AB95-4525-998C-52E138AFB44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8312AD8C-B8D6-41B8-98A9-1E1144F9F763}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -175,6 +175,15 @@
   </si>
   <si>
     <t>Mail_Subject</t>
+  </si>
+  <si>
+    <t>\\dfxi.com\dfs\Shared\VW\IT\RPA-Automation\Dev\RPA-034-Missing-Shipping-Groups</t>
+  </si>
+  <si>
+    <t>Mail_On_Behalf</t>
+  </si>
+  <si>
+    <t>RPATest@Nautilus.com</t>
   </si>
 </sst>
 </file>
@@ -226,16 +235,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2797,8 +2807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2885,8 +2895,28 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
